--- a/Condiciones de calidad/7. Profesores/Lista Profesores F.xlsx
+++ b/Condiciones de calidad/7. Profesores/Lista Profesores F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documentos\GitHub\ESPECIALIZACION_EN_INDUSTRIA_5.0_Y_AUTOMATIZACION_INDUSTRIAL\Condiciones de calidad\Condiciones de calidad\7. Profesores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/238b960ec7e7fce5/Documentos/GitHub/ESPECIALIZACION_EN_INDUSTRIA_5.0_Y_AUTOMATIZACION_INDUSTRIAL/Condiciones de calidad/7. Profesores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AE3A2F-0F0C-4BF3-8458-8E9A2AA1F9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F8AE3A2F-0F0C-4BF3-8458-8E9A2AA1F9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8002ECAB-73A8-4FC3-AD0F-23B74C5C75A8}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,6 +611,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -628,9 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,53 +948,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection sqref="A1:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="37.68359375" customWidth="1"/>
+    <col min="1" max="1" width="18.83984375" customWidth="1"/>
+    <col min="2" max="2" width="11.47265625" customWidth="1"/>
+    <col min="3" max="3" width="11.26171875" customWidth="1"/>
     <col min="4" max="4" width="24.68359375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5234375" customWidth="1"/>
-    <col min="6" max="6" width="14.68359375" customWidth="1"/>
+    <col min="5" max="5" width="20.7890625" customWidth="1"/>
+    <col min="6" max="6" width="9.41796875" customWidth="1"/>
+    <col min="7" max="7" width="6.7890625" customWidth="1"/>
+    <col min="8" max="9" width="5.5234375" customWidth="1"/>
+    <col min="10" max="10" width="7.89453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="2" t="s">
         <v>84</v>
       </c>
@@ -2135,7 +2140,7 @@
         <v>98</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="10" t="s">
